--- a/etc/vbtest/search.xlsx
+++ b/etc/vbtest/search.xlsx
@@ -839,7 +839,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/etc/vbtest/search.xlsx
+++ b/etc/vbtest/search.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>No.</t>
   </si>
@@ -28,9 +26,6 @@
   </si>
   <si>
     <t>回答/修正内容</t>
-  </si>
-  <si>
-    <t>【調査中】</t>
   </si>
   <si>
     <t>【修正中】</t>
@@ -152,10 +147,6 @@
   <si>
     <t>8月2日
 山田</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>8月4日
@@ -203,12 +194,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>【調査中】</t>
+    <rPh sb="1" eb="4">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,16 +222,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -261,7 +274,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -271,85 +286,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -358,196 +301,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B2:F10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:F10"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="4"/>
-    <tableColumn id="2" name="日付・記入者" dataDxfId="3"/>
-    <tableColumn id="3" name="質問/不具合" dataDxfId="2"/>
-    <tableColumn id="4" name="日付・記入者2" dataDxfId="1"/>
-    <tableColumn id="5" name="回答/修正内容" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,187 +640,158 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="27">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="40.5">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="67.5">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="81">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="40.5">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="27">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" ht="27">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="27">
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="40.5">
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="67.5">
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="81">
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="40.5">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="40.5">
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="27">
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="27">
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="40.5">
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>